--- a/data/trans_media/IQ18C_M-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ18C_M-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,9</t>
+          <t>9,48; 12,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 19,37</t>
+          <t>7,86; 18,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,03</t>
+          <t>7,86; 13,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,74</t>
+          <t>5,18; 10,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,47</t>
+          <t>11,07; 14,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 22,64</t>
+          <t>10,92; 23,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 23,16</t>
+          <t>9,8; 22,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 16,01</t>
+          <t>3,31; 16,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 13,16</t>
+          <t>10,76; 13,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,93</t>
+          <t>10,36; 17,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 16,51</t>
+          <t>9,68; 16,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,75</t>
+          <t>4,85; 12,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,26</t>
+          <t>13,52; 17,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 12,22</t>
+          <t>9,44; 12,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,76</t>
+          <t>10,17; 13,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 14,9</t>
+          <t>9,52; 15,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 17,65</t>
+          <t>14,14; 17,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 13,81</t>
+          <t>10,28; 13,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,51</t>
+          <t>11,01; 14,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 21,97</t>
+          <t>9,27; 20,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 16,67</t>
+          <t>14,1; 16,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 12,32</t>
+          <t>10,23; 12,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 13,35</t>
+          <t>10,87; 13,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 16,47</t>
+          <t>10,36; 15,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 14,07</t>
+          <t>12,4; 14,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 13,5</t>
+          <t>11,32; 13,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 13,04</t>
+          <t>11,09; 13,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,94</t>
+          <t>11,68; 16,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 14,68</t>
+          <t>12,83; 14,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 13,09</t>
+          <t>11,15; 13,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 12,16</t>
+          <t>10,66; 12,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,73</t>
+          <t>10,52; 16,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 14,1</t>
+          <t>12,76; 14,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 12,94</t>
+          <t>11,47; 12,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,07; 12,36</t>
+          <t>11,07; 12,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 15,03</t>
+          <t>11,9; 15,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 15,34</t>
+          <t>12,83; 15,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 12,45</t>
+          <t>10,52; 12,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 12,64</t>
+          <t>10,6; 12,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,75</t>
+          <t>10,81; 19,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 14,27</t>
+          <t>12,66; 14,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 12,7</t>
+          <t>10,49; 12,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 11,7</t>
+          <t>10,0; 11,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,64</t>
+          <t>9,99; 18,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 14,51</t>
+          <t>12,93; 14,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 12,21</t>
+          <t>10,73; 12,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 11,94</t>
+          <t>10,56; 11,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,49</t>
+          <t>11,19; 17,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 15,42</t>
+          <t>13,7; 15,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 13,78</t>
+          <t>12,05; 13,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,54</t>
+          <t>11,55; 13,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,64</t>
+          <t>9,63; 13,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 15,24</t>
+          <t>13,41; 15,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,58</t>
+          <t>11,44; 13,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 12,48</t>
+          <t>10,84; 12,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,4; 25,68</t>
+          <t>12,23; 25,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 15,08</t>
+          <t>13,83; 15,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 13,23</t>
+          <t>11,93; 13,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,39; 12,62</t>
+          <t>11,38; 12,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,8</t>
+          <t>11,72; 18,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,39; 14,52</t>
+          <t>13,41; 14,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 12,47</t>
+          <t>11,36; 12,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 12,4</t>
+          <t>11,28; 12,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,63; 14,49</t>
+          <t>11,59; 14,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,56; 14,55</t>
+          <t>13,59; 14,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 12,59</t>
+          <t>11,48; 12,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 12,07</t>
+          <t>11,11; 12,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,44</t>
+          <t>11,84; 16,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 14,38</t>
+          <t>13,62; 14,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 12,38</t>
+          <t>11,55; 12,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 12,08</t>
+          <t>11,39; 12,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,79</t>
+          <t>12,23; 14,67</t>
         </is>
       </c>
     </row>
